--- a/Numeral system.xlsx
+++ b/Numeral system.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documentos\PEGASUS\Sistema Numeracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7245FA6B-8061-41C4-86C0-7D977E56664D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898CAA62-4408-4BC1-B0A6-BD8955FC1163}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A34F782-914A-4E16-9742-8B7C5A8FBD53}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$1:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$J$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE8977-27FF-47E2-B371-C0CDD9E33B19}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
